--- a/division summary.xlsx
+++ b/division summary.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAWARUX1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\2025\Aditya\3D Division Automation Mail\3D-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CB4346-751E-4530-94BB-3EA3F0C8CC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE69C7-1769-45B9-93C7-FAD422947915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D3754B5-5CB7-4504-8CEE-E423F2A0F8EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Affiliate</t>
   </si>
@@ -47,40 +47,70 @@
     <t>Division Name</t>
   </si>
   <si>
-    <t># TBMs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Unique HCPs Participating </t>
-  </si>
-  <si>
-    <t># Requests raised</t>
-  </si>
-  <si>
-    <t># Requests dispatched</t>
-  </si>
-  <si>
-    <t># Action pending / In Process</t>
-  </si>
-  <si>
-    <t># Dispatched &amp; In Transit</t>
-  </si>
-  <si>
-    <t># Out of stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Delivered </t>
-  </si>
-  <si>
-    <t>#RTO</t>
-  </si>
-  <si>
-    <t>- Incomplete Address</t>
-  </si>
-  <si>
-    <t>- Dr. Non contactable</t>
-  </si>
-  <si>
-    <t>- Doctor refused to accept</t>
+    <t># Unique TBMs</t>
+  </si>
+  <si>
+    <t># Unique HCPs</t>
+  </si>
+  <si>
+    <t># Requests Raised
+(A+B+C)</t>
+  </si>
+  <si>
+    <t>Request Cancelled / Out of Stock (A)</t>
+  </si>
+  <si>
+    <t>Action pending / In Process At HO (B)</t>
+  </si>
+  <si>
+    <t>Sent to HUB ('C)
+(D+E+F)</t>
+  </si>
+  <si>
+    <t>Pending for Invoicing (D)</t>
+  </si>
+  <si>
+    <t>Pending for Dispatch (E)</t>
+  </si>
+  <si>
+    <t># Requests Dispatched (F)
+(G+H+I)</t>
+  </si>
+  <si>
+    <t>Delivered (G)</t>
+  </si>
+  <si>
+    <t>Dispatched &amp; In Transit (H)</t>
+  </si>
+  <si>
+    <t>RTO (I)</t>
+  </si>
+  <si>
+    <t>Incomplete Address</t>
+  </si>
+  <si>
+    <t>Doctor Non Contactable</t>
+  </si>
+  <si>
+    <t>Doctor Refused to Accept</t>
+  </si>
+  <si>
+    <t>Hold Delivery</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>HUB</t>
+  </si>
+  <si>
+    <t>Delivery Status</t>
+  </si>
+  <si>
+    <t>RTO Reasons</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -97,19 +127,18 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11.5"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +147,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -133,77 +168,68 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -211,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -219,17 +245,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,64 +595,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0ABBDB-B140-49AD-9C47-42BDC16E4DC2}">
-  <dimension ref="E5:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0E5DC8-7AD4-46D4-BD1B-AF82B52911C3}">
+  <dimension ref="B3:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="5:19" ht="96.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="2:20" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="5:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="E6" s="4"/>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -635,9 +705,123 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>